--- a/03.Design/ThietKeDatabaseV1.xlsx
+++ b/03.Design/ThietKeDatabaseV1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>email_login (varchar)</t>
   </si>
@@ -37,61 +37,6 @@
   </si>
   <si>
     <t>name_first_school (varchar)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id_first_school</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (int)</t>
-    </r>
-  </si>
-  <si>
-    <t>name_second_school (varchar)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id_second_school</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (int)</t>
-    </r>
-  </si>
-  <si>
-    <t>id_first_school (varchar)</t>
-  </si>
-  <si>
-    <t>id_second_school (varchar)</t>
   </si>
   <si>
     <t>profile_picture (varchar)</t>
@@ -193,13 +138,50 @@
     <t>Thông tin trường học 1</t>
   </si>
   <si>
-    <t>Thông tin trường học 2</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_school</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (int)</t>
+    </r>
+  </si>
+  <si>
+    <t>id_school (varchar)</t>
+  </si>
+  <si>
+    <t>LOG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,6 +273,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -312,7 +297,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -344,69 +335,28 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1714500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>807720</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4838700" y="1844040"/>
-          <a:ext cx="1135380" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>800900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>129744</xdr:rowOff>
+      <xdr:colOff>191300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>5919</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -425,8 +375,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3573780" y="2918460"/>
-          <a:ext cx="9221000" cy="2347164"/>
+          <a:off x="2973705" y="2375535"/>
+          <a:ext cx="9247670" cy="2421459"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -481,7 +431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,9 +464,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,6 +516,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -725,62 +709,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q15"/>
+  <dimension ref="B1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.296875" customWidth="1"/>
-    <col min="4" max="4" width="26.796875" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="8" max="8" width="27.796875" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" customWidth="1"/>
-    <col min="15" max="15" width="26.09765625" customWidth="1"/>
+    <col min="8" max="8" width="27.75" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="5" t="s">
@@ -794,7 +778,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
@@ -806,81 +790,74 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D10" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +873,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -908,7 +885,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/03.Design/ThietKeDatabaseV1.xlsx
+++ b/03.Design/ThietKeDatabaseV1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>email_login (varchar)</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>first_name (varchar)</t>
-  </si>
-  <si>
-    <t>date_of_birth (datetime)</t>
   </si>
   <si>
     <t>Key</t>
@@ -177,11 +174,17 @@
   <si>
     <t>LOG</t>
   </si>
+  <si>
+    <t>token (varchar)</t>
+  </si>
+  <si>
+    <t>date_of_birth (date)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,8 +270,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -300,7 +331,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -338,22 +369,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>506730</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:colOff>461010</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>191300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>5919</xdr:rowOff>
+      <xdr:colOff>145580</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -375,8 +406,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2973705" y="2375535"/>
-          <a:ext cx="9247670" cy="2421459"/>
+          <a:off x="2914650" y="2779395"/>
+          <a:ext cx="9201950" cy="2347164"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -431,7 +462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,26 +495,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,23 +530,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -712,73 +709,73 @@
   <dimension ref="B1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" customWidth="1"/>
+    <col min="4" max="4" width="26.69921875" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="8" max="8" width="27.75" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="15" max="15" width="26.125" customWidth="1"/>
+    <col min="8" max="8" width="27.69921875" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" customWidth="1"/>
+    <col min="15" max="15" width="26.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
@@ -792,7 +789,7 @@
     </row>
     <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>3</v>
@@ -800,64 +797,68 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D10" s="5" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +874,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -885,7 +886,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
